--- a/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-overall_SeasonType_Playoffs_Season_2018-19.xlsx
@@ -1884,17 +1884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1904,12 +1904,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -1949,17 +1949,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>James Harden</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1994,17 +1994,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -2989,17 +2989,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Giannis Antetokounmpo</t>
+          <t>Domantas Sabonis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3009,12 +3009,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -3054,17 +3054,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Domantas Sabonis</t>
+          <t>Giannis Antetokounmpo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-9.8</t>
         </is>
       </c>
     </row>
@@ -3639,32 +3639,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Danny Green</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -3704,32 +3704,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Danny Green</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3749,17 +3749,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -3769,32 +3769,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kyrie Irving</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>60.4</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>46.3</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -3834,32 +3834,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Kyrie Irving</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>46.1</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>Langston Galloway</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>54.3</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Langston Galloway</t>
+          <t>Wayne Ellington</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>54.3</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>7.9</t>
         </is>
       </c>
     </row>
@@ -4614,17 +4614,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Eric Bledsoe</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4634,12 +4634,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -4744,17 +4744,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Eric Bledsoe</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4764,12 +4764,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4789,17 +4789,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -5004,32 +5004,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Jonathan Isaac</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -5069,32 +5069,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jonathan Isaac</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>10.8</t>
         </is>
       </c>
     </row>
@@ -5134,17 +5134,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>10.8</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -5199,17 +5199,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5244,17 +5244,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -5394,32 +5394,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Derrick Favors</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-10.1</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -5459,32 +5459,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Derrick Favors</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>-10.1</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Darren Collison</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6159,12 +6159,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Spencer Dinwiddie</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6444,12 +6444,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6479,17 +6479,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>-12.0</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Spencer Dinwiddie</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>6.6</t>
         </is>
       </c>
     </row>
@@ -6694,17 +6694,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Thon Maker</t>
+          <t>Maurice Harkless</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -6729,27 +6729,27 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>9.3</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
           <t>4.0</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>43.2</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -6759,17 +6759,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Maurice Harkless</t>
+          <t>Thon Maker</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6779,12 +6779,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6804,17 +6804,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>-5.7</t>
         </is>
       </c>
     </row>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6844,12 +6844,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -6889,17 +6889,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6909,12 +6909,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -8189,22 +8189,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Wilson Chandler</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>12.6</t>
         </is>
       </c>
     </row>
@@ -8254,22 +8254,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Wilson Chandler</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8289,7 +8289,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -9359,17 +9359,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Wes Iwundu</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-4.3</t>
         </is>
       </c>
     </row>
@@ -9424,17 +9424,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Wes Iwundu</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -9619,32 +9619,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jordan Bell</t>
+          <t>Norman Powell</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -9684,32 +9684,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Norman Powell</t>
+          <t>Jordan Bell</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -9719,7 +9719,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -10074,22 +10074,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Zaza Pachulia</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>22.3</t>
         </is>
       </c>
     </row>
@@ -10139,22 +10139,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Zaza Pachulia</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10174,7 +10174,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>-22.0</t>
         </is>
       </c>
     </row>
@@ -10334,32 +10334,32 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Ekpe Udoh</t>
+          <t>Jon Leuer</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>16.9</t>
+          <t>-18.4</t>
         </is>
       </c>
     </row>
@@ -10399,22 +10399,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Ekpe Udoh</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>16.9</t>
         </is>
       </c>
     </row>
@@ -10464,32 +10464,32 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jon Leuer</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -10499,7 +10499,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-18.4</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -10594,32 +10594,32 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Kenneth Faried</t>
+          <t>Jonas Jerebko</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10639,17 +10639,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -10659,32 +10659,32 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jonas Jerebko</t>
+          <t>Kenneth Faried</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -10789,22 +10789,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Glenn Robinson III</t>
+          <t>Jacob Evans</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -10854,22 +10854,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jacob Evans</t>
+          <t>Glenn Robinson III</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10889,7 +10889,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>-9.0</t>
         </is>
       </c>
     </row>
@@ -10984,17 +10984,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Shabazz Napier</t>
+          <t>Tyrone Wallace</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -11049,17 +11049,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Tyrone Wallace</t>
+          <t>Shabazz Napier</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>7.9</t>
         </is>
       </c>
     </row>
@@ -12414,17 +12414,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Jeremy Lin</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-10.7</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Jeremy Lin</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>-10.7</t>
         </is>
       </c>
     </row>
@@ -12609,17 +12609,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -12629,12 +12629,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>53.9</t>
         </is>
       </c>
     </row>
@@ -12674,32 +12674,32 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Juancho Hernangomez</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>41.9</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-16.9</t>
         </is>
       </c>
     </row>
@@ -12739,32 +12739,32 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Jake Layman</t>
+          <t>Melvin Frazier Jr.</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -12774,7 +12774,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12784,17 +12784,17 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-43.0</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12824,12 +12824,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>41.9</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-16.9</t>
+          <t>-8.2</t>
         </is>
       </c>
     </row>
@@ -12869,22 +12869,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Melvin Frazier Jr.</t>
+          <t>Jose Calderon</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>43.6</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-43.0</t>
+          <t>56.4</t>
         </is>
       </c>
     </row>
@@ -12934,17 +12934,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Jake Layman</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -12954,12 +12954,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-12.2</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -12999,17 +12999,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Skal Labissiere</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13019,12 +13019,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13044,17 +13044,17 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>45.6</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-40.9</t>
+          <t>-12.2</t>
         </is>
       </c>
     </row>
@@ -13064,22 +13064,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13099,7 +13099,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-8.2</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -13129,32 +13129,32 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jerian Grant</t>
+          <t>Skal Labissiere</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -13179,12 +13179,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-40.9</t>
         </is>
       </c>
     </row>
@@ -13194,32 +13194,32 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jose Calderon</t>
+          <t>Juancho Hernangomez</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -13229,27 +13229,27 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>43.6</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -13259,32 +13259,32 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Jerian Grant</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -13294,27 +13294,27 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>-45.0</t>
         </is>
       </c>
     </row>
@@ -13324,12 +13324,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Jarred Vanderbilt</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -13339,17 +13339,17 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>43.2</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>-9.8</t>
         </is>
       </c>
     </row>
@@ -13389,12 +13389,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -13404,17 +13404,17 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>43.2</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>-40.0</t>
         </is>
       </c>
     </row>
@@ -13649,17 +13649,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Sindarius Thornwell</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13669,12 +13669,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -13684,27 +13684,27 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
           <t>0.0</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>-44.0</t>
         </is>
       </c>
     </row>
@@ -13779,22 +13779,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Isaiah Hartenstein</t>
+          <t>Zhaire Smith</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -13814,27 +13814,27 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>-38.2</t>
         </is>
       </c>
     </row>
@@ -13844,32 +13844,32 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sindarius Thornwell</t>
+          <t>Isaiah Hartenstein</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13889,17 +13889,17 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>62.7</t>
         </is>
       </c>
     </row>
@@ -13909,32 +13909,32 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Zhaire Smith</t>
+          <t>Dante Cunningham</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -13944,7 +13944,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -13954,17 +13954,17 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>48.7</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-38.2</t>
+          <t>51.3</t>
         </is>
       </c>
     </row>
@@ -13974,22 +13974,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Dante Cunningham</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -14009,27 +14009,27 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>48.7</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>-48.2</t>
         </is>
       </c>
     </row>
@@ -14039,32 +14039,32 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Damian Jones</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -14089,12 +14089,12 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>48.2</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-48.2</t>
+          <t>-44.0</t>
         </is>
       </c>
     </row>
